--- a/tasa de intervencion-Colombia.xlsx
+++ b/tasa de intervencion-Colombia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56033E8-E3D7-468D-9F41-E1F226C06607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59363BD7-0FBD-480D-9C70-5773461AC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t xml:space="preserve">Tasa de intervención Banco de la República </t>
   </si>
@@ -90,9 +90,6 @@
     </r>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>Año_mes</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +199,16 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +230,14 @@
         <fgColor rgb="FFD6EAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -276,11 +293,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -324,6 +376,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -331,7 +389,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -342,6 +417,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{508DE67B-35F0-45E9-AD3B-E5F15654CE9D}" name="Tabla1" displayName="Tabla1" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38" xr:uid="{508DE67B-35F0-45E9-AD3B-E5F15654CE9D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7F52A730-A9F4-4F0E-A8F0-5ED08CD69F32}" name="Periodo" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9366CAAB-90B8-4C41-BBF4-964335D8A5A2}" name="Año_mes" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{50EE0AAB-9B31-4126-81D2-D4F89CA4520E}" name="Mes"/>
+    <tableColumn id="4" xr3:uid="{A58AF23C-A12E-4C88-951F-9A1BD5101286}" name="tasa_mensual"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68353,10 +68441,10 @@
       </c>
     </row>
     <row r="8464" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8464" s="15" t="s">
+      <c r="A8464" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8464" s="15"/>
+      <c r="B8464" s="19"/>
     </row>
     <row r="8465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8465" s="11" t="s">
@@ -68388,437 +68476,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A19B69-64A0-4D4F-A57F-5A49A2448977}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B38"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>43466</v>
+      </c>
+      <c r="B2" s="17">
+        <v>2019.01</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>43497</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2019.02</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>43525</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2019.03</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>43556</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2019.04</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2019.05</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>43617</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2019.06</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2019</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>43647</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2019.07</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>43678</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2019.08</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>43709</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2019.09</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>43739</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2019.1</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>43770</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2019.11</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>43800</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2019.12</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2019</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2020</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>43831</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2020.01</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>43862</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2020.02</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2020</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>43891</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2020.03</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D16">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2020.04</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2020.05</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2020</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>43983</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2020.06</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2020</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D19">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2020.07</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2020</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>44044</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2020.08</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="D21">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>44075</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2020.09</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>44105</v>
+      </c>
+      <c r="B23" s="17">
+        <v>2020.1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="17">
+        <v>2020.11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
+        <v>44166</v>
+      </c>
+      <c r="B25" s="17">
+        <v>2020.12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
+        <v>44197</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2021.01</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <v>44228</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2021.02</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>44256</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2021.03</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2021.04</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B30" s="17">
+        <v>2021.05</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>44348</v>
+      </c>
+      <c r="B31" s="17">
+        <v>2021.06</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>44378</v>
+      </c>
+      <c r="B32" s="17">
+        <v>2021.07</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>44409</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2021.08</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="17">
+        <v>2021.09</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="17">
+        <v>2021.1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>44501</v>
+      </c>
+      <c r="B36" s="17">
+        <v>2021.11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2020</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>44531</v>
+      </c>
+      <c r="B37" s="17">
+        <v>2021.12</v>
+      </c>
+      <c r="C37" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2020</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2021</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2021</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2021</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2021</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2021</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2021</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2021</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2021</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2021</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37">
+      <c r="D37">
         <v>2.69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2022</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>44562</v>
+      </c>
+      <c r="B38" s="18">
+        <v>2022.01</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>